--- a/SDA upload Final - 2-2-23  Berkeley Twp.xlsx
+++ b/SDA upload Final - 2-2-23  Berkeley Twp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inverinvestments-my.sharepoint.com/personal/bobpower_sarsfieldcapital_com/Documents/Bob Mike and Kirk/2021 NJ Data Files/PURCHASE FILE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bob - SDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F38A64A-68B7-437C-B15D-2834E44F3F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D8FDE-4B7E-43DA-818C-6200C51F4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1606F038-4C1F-45C8-A7A9-62032DA2C67B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1606F038-4C1F-45C8-A7A9-62032DA2C67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="345">
   <si>
     <t>Managing Company</t>
   </si>
@@ -1055,6 +1055,45 @@
   </si>
   <si>
     <t>Block: 1717 Lot: 2416 Qual: District: 15 City: BERKELEY TOWNSHIP</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FEES</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>BEGINNING BALANCE</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>SUBSEQUENT TAX</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>INTEREST</t>
+  </si>
+  <si>
+    <t>EFFECTIVE DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>INTEREST ACCRUAL INTERVAL</t>
   </si>
 </sst>
 </file>
@@ -1093,15 +1132,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1218,9 +1261,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1364,69 +1404,80 @@
     <tableColumn id="4" xr3:uid="{212DDEDF-A9D6-47F1-870C-6CB4DDE7C13C}" uniqueName="4" name="Original Lien (Interest)" queryTableFieldId="4" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{C9201348-8F42-4A4F-B89C-2D57D8E86F70}" uniqueName="5" name="Original Lien (Effective Date)" queryTableFieldId="5" dataDxfId="41"/>
     <tableColumn id="6" xr3:uid="{BCF97619-C3A1-41AB-9F37-9FBF389CB78D}" uniqueName="6" name="Original Lien (Interval)" queryTableFieldId="6" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{A64F5F69-4C1B-4040-A22B-C8C1353279BF}" uniqueName="7" name="Premium (Amount)" queryTableFieldId="7" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{2744CA0F-5046-4AE7-8193-FC905F197796}" uniqueName="8" name="Premium (Interest)" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{53874118-4D5C-42F9-B084-0BEE6470CB8C}" uniqueName="9" name="Premium (Effective Date)" queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{2F93822D-FACC-48FB-B7D9-DFE9C45E0712}" uniqueName="10" name="Premium (Interval)" queryTableFieldId="10" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{A64F5F69-4C1B-4040-A22B-C8C1353279BF}" uniqueName="7" name="Premium (Amount)" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{2744CA0F-5046-4AE7-8193-FC905F197796}" uniqueName="8" name="Premium (Interest)" queryTableFieldId="8" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{53874118-4D5C-42F9-B084-0BEE6470CB8C}" uniqueName="9" name="Premium (Effective Date)" queryTableFieldId="9" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{2F93822D-FACC-48FB-B7D9-DFE9C45E0712}" uniqueName="10" name="Premium (Interval)" queryTableFieldId="10" dataDxfId="37"/>
     <tableColumn id="11" xr3:uid="{0C5BE1DF-B7AD-4EA1-909E-C1F84BF63775}" uniqueName="11" name="Tsrid" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{4BD81716-77B6-49F2-8950-9759A319F67F}" uniqueName="12" name="State" queryTableFieldId="12" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{3E16EFCF-4334-42F6-BDCF-9AE6202F070F}" uniqueName="13" name="County" queryTableFieldId="13" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{FA7F063A-B374-4422-BDEE-A35119D5EBBE}" uniqueName="14" name="Municipality" queryTableFieldId="14" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{821A2D24-7F38-4B73-8E91-0C7F136BC842}" uniqueName="15" name="Parcel Id" queryTableFieldId="15" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{4BD81716-77B6-49F2-8950-9759A319F67F}" uniqueName="12" name="State" queryTableFieldId="12" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{3E16EFCF-4334-42F6-BDCF-9AE6202F070F}" uniqueName="13" name="County" queryTableFieldId="13" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{FA7F063A-B374-4422-BDEE-A35119D5EBBE}" uniqueName="14" name="Municipality" queryTableFieldId="14" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{821A2D24-7F38-4B73-8E91-0C7F136BC842}" uniqueName="15" name="Parcel Id" queryTableFieldId="15" dataDxfId="33"/>
     <tableColumn id="16" xr3:uid="{243EFF00-6EE9-481E-97E1-3612E4A1C490}" uniqueName="16" name="Tax Id" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{C917AD59-B211-442F-86E5-87D951F0FA6F}" uniqueName="17" name="Owner Name (Current Owner)" queryTableFieldId="17" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{7A48AE6B-85F1-421B-9E0F-7A59ED9BFDD1}" uniqueName="18" name="Owner Address" queryTableFieldId="18" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{4D52DD81-C36B-4EA7-A46C-40C96E27CBE0}" uniqueName="19" name="Owner City State Zip" queryTableFieldId="19" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{C917AD59-B211-442F-86E5-87D951F0FA6F}" uniqueName="17" name="Owner Name (Current Owner)" queryTableFieldId="17" dataDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{7A48AE6B-85F1-421B-9E0F-7A59ED9BFDD1}" uniqueName="18" name="Owner Address" queryTableFieldId="18" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{4D52DD81-C36B-4EA7-A46C-40C96E27CBE0}" uniqueName="19" name="Owner City State Zip" queryTableFieldId="19" dataDxfId="30"/>
     <tableColumn id="20" xr3:uid="{EF1BFA48-EA0D-4CE1-B2A2-077E54040D3F}" uniqueName="20" name="Homestead Exemption" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{103FC4C1-2C6B-4076-A5E4-2DFFD7E214C1}" uniqueName="21" name="Total Assessed Value" queryTableFieldId="21"/>
     <tableColumn id="22" xr3:uid="{7ED72EB5-2142-48B7-B742-279CA35EFE77}" uniqueName="22" name="Total Market Value" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{1324D42F-7749-47D6-A1D7-A17CA3B30961}" uniqueName="23" name="APN" queryTableFieldId="23" dataDxfId="28"/>
-    <tableColumn id="24" xr3:uid="{1123FF39-D3DD-4024-AE02-544D92BE3588}" uniqueName="24" name="Location Full Street Address" queryTableFieldId="24" dataDxfId="27"/>
-    <tableColumn id="25" xr3:uid="{7918FC9D-0F09-422E-9388-40F175E88BB2}" uniqueName="25" name="Location City" queryTableFieldId="25" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{2FA658BC-7E62-4062-A27A-D8326C36EDD0}" uniqueName="26" name="Location Zip" queryTableFieldId="26" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{1324D42F-7749-47D6-A1D7-A17CA3B30961}" uniqueName="23" name="APN" queryTableFieldId="23" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{1123FF39-D3DD-4024-AE02-544D92BE3588}" uniqueName="24" name="Location Full Street Address" queryTableFieldId="24" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{7918FC9D-0F09-422E-9388-40F175E88BB2}" uniqueName="25" name="Location City" queryTableFieldId="25" dataDxfId="27"/>
+    <tableColumn id="26" xr3:uid="{2FA658BC-7E62-4062-A27A-D8326C36EDD0}" uniqueName="26" name="Location Zip" queryTableFieldId="26" dataDxfId="26"/>
     <tableColumn id="27" xr3:uid="{078BE5BF-0A73-4D59-8AA7-15C2D2DF2511}" uniqueName="27" name="Longitude" queryTableFieldId="27"/>
     <tableColumn id="28" xr3:uid="{BB46634D-83B6-42F4-ADC9-34FAABE36CE2}" uniqueName="28" name="Latitude" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{B0FDC394-F520-4117-AA43-F9987AD81170}" uniqueName="29" name="Owner Occupied" queryTableFieldId="29" dataDxfId="24"/>
+    <tableColumn id="29" xr3:uid="{B0FDC394-F520-4117-AA43-F9987AD81170}" uniqueName="29" name="Owner Occupied" queryTableFieldId="29" dataDxfId="25"/>
     <tableColumn id="30" xr3:uid="{2A9EB0D9-1763-4D0B-A1DA-5CFF0FB3FE42}" uniqueName="30" name="County Land Use" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{7BD6866D-AD44-4D07-9346-70AF2CD2F9CA}" uniqueName="31" name="County Land Use Desc" queryTableFieldId="31" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{7BD6866D-AD44-4D07-9346-70AF2CD2F9CA}" uniqueName="31" name="County Land Use Desc" queryTableFieldId="31" dataDxfId="24"/>
     <tableColumn id="32" xr3:uid="{2AEEB05E-805C-4F5E-87AD-A8E169DE1E81}" uniqueName="32" name="Standardized Land Use" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{C3C643AB-38C6-43B7-B445-B97241DBB464}" uniqueName="33" name="Standardized Land Use Desc (Property Type)" queryTableFieldId="33" dataDxfId="22"/>
+    <tableColumn id="33" xr3:uid="{C3C643AB-38C6-43B7-B445-B97241DBB464}" uniqueName="33" name="Standardized Land Use Desc (Property Type)" queryTableFieldId="33" dataDxfId="23"/>
     <tableColumn id="34" xr3:uid="{E1E5819A-A4A4-4621-B07C-7C1843A0ED19}" uniqueName="34" name="Lot Size" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{2D7D2B15-5AB9-48F9-A0FF-0113C07C9875}" uniqueName="35" name="Lot Size Unit" queryTableFieldId="35" dataDxfId="21"/>
-    <tableColumn id="36" xr3:uid="{E763400F-346F-4FF7-95A7-01621A9F86F1}" uniqueName="36" name="Zoning" queryTableFieldId="36" dataDxfId="20"/>
+    <tableColumn id="35" xr3:uid="{2D7D2B15-5AB9-48F9-A0FF-0113C07C9875}" uniqueName="35" name="Lot Size Unit" queryTableFieldId="35" dataDxfId="22"/>
+    <tableColumn id="36" xr3:uid="{E763400F-346F-4FF7-95A7-01621A9F86F1}" uniqueName="36" name="Zoning" queryTableFieldId="36" dataDxfId="21"/>
     <tableColumn id="37" xr3:uid="{AEE75B2B-FC44-49CF-8A2F-D0D65DB2A27E}" uniqueName="37" name="Building Class" queryTableFieldId="37"/>
     <tableColumn id="38" xr3:uid="{68CA403D-2BD2-412C-A2BF-945F4A3768B8}" uniqueName="38" name="Year Built" queryTableFieldId="38"/>
     <tableColumn id="39" xr3:uid="{5FF632A2-7507-4D5F-808B-ACEB06022D08}" uniqueName="39" name="No Of Stories" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{A0BC1282-ED9E-43D5-9BD2-B7674FB5371E}" uniqueName="40" name="No Of Units" queryTableFieldId="40" dataDxfId="19"/>
+    <tableColumn id="40" xr3:uid="{A0BC1282-ED9E-43D5-9BD2-B7674FB5371E}" uniqueName="40" name="No Of Units" queryTableFieldId="40" dataDxfId="20"/>
     <tableColumn id="41" xr3:uid="{48F47C00-A722-4CC4-A126-7908289B87E9}" uniqueName="41" name="Assessment Year" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{20231DF5-C6DD-4A7F-8396-0AAB8546A426}" uniqueName="42" name="Latest Sale Date" queryTableFieldId="42" dataDxfId="18"/>
+    <tableColumn id="42" xr3:uid="{20231DF5-C6DD-4A7F-8396-0AAB8546A426}" uniqueName="42" name="Latest Sale Date" queryTableFieldId="42" dataDxfId="19"/>
     <tableColumn id="43" xr3:uid="{6B4EF49D-C950-46C8-991B-8CF04CBC6FCB}" uniqueName="43" name="Latest Sale Price" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{ABCEA554-6326-4E3B-89CD-D43BD5821A6D}" uniqueName="44" name="Latest Arms Length Sale Date" queryTableFieldId="44" dataDxfId="17"/>
-    <tableColumn id="45" xr3:uid="{34D84FB0-A33A-4B26-AF92-6512DA9F543A}" uniqueName="45" name="Latest Arms Length Sale Price" queryTableFieldId="45" dataDxfId="16"/>
-    <tableColumn id="46" xr3:uid="{8B829934-69FF-44A5-96A4-DE5C69488208}" uniqueName="46" name="Prior Arms Length Sale Date" queryTableFieldId="46" dataDxfId="15"/>
-    <tableColumn id="47" xr3:uid="{D0556F84-1FFA-47BB-8C1E-419AA21C6485}" uniqueName="47" name="Prior Arms Length Sale Price" queryTableFieldId="47" dataDxfId="14"/>
+    <tableColumn id="44" xr3:uid="{ABCEA554-6326-4E3B-89CD-D43BD5821A6D}" uniqueName="44" name="Latest Arms Length Sale Date" queryTableFieldId="44" dataDxfId="18"/>
+    <tableColumn id="45" xr3:uid="{34D84FB0-A33A-4B26-AF92-6512DA9F543A}" uniqueName="45" name="Latest Arms Length Sale Price" queryTableFieldId="45" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{8B829934-69FF-44A5-96A4-DE5C69488208}" uniqueName="46" name="Prior Arms Length Sale Date" queryTableFieldId="46" dataDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{D0556F84-1FFA-47BB-8C1E-419AA21C6485}" uniqueName="47" name="Prior Arms Length Sale Price" queryTableFieldId="47" dataDxfId="15"/>
     <tableColumn id="48" xr3:uid="{2992A6B7-EF3D-47C3-9054-F3E0E3D3776F}" uniqueName="48" name="Loan1 Amount" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{581FA622-95A5-4EC0-B1A7-1DCB22DEA191}" uniqueName="49" name="Loan1 Due Date" queryTableFieldId="49" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{2E885418-5C76-4392-8F7D-2977072E9F69}" uniqueName="50" name="Loan1 Type" queryTableFieldId="50" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{97DF6E75-3AF9-4D82-B093-3C70FE57476C}" uniqueName="51" name="Loan2 Amount" queryTableFieldId="51" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{4C22C067-ED04-45E9-9410-7078223D6B5B}" uniqueName="52" name="Legal City" queryTableFieldId="52" dataDxfId="10"/>
+    <tableColumn id="49" xr3:uid="{581FA622-95A5-4EC0-B1A7-1DCB22DEA191}" uniqueName="49" name="Loan1 Due Date" queryTableFieldId="49" dataDxfId="14"/>
+    <tableColumn id="50" xr3:uid="{2E885418-5C76-4392-8F7D-2977072E9F69}" uniqueName="50" name="Loan1 Type" queryTableFieldId="50" dataDxfId="13"/>
+    <tableColumn id="51" xr3:uid="{97DF6E75-3AF9-4D82-B093-3C70FE57476C}" uniqueName="51" name="Loan2 Amount" queryTableFieldId="51" dataDxfId="12"/>
+    <tableColumn id="52" xr3:uid="{4C22C067-ED04-45E9-9410-7078223D6B5B}" uniqueName="52" name="Legal City" queryTableFieldId="52" dataDxfId="11"/>
     <tableColumn id="53" xr3:uid="{7A9C3F5D-FD63-4914-A51F-AD6F21AE73C6}" uniqueName="53" name="Legal Block" queryTableFieldId="53"/>
     <tableColumn id="54" xr3:uid="{ECB0F361-21EA-4620-8EC6-72042F72EBE6}" uniqueName="54" name="Legal Lot Number" queryTableFieldId="54"/>
-    <tableColumn id="55" xr3:uid="{6024DE49-C8B1-410D-9AA7-2CE086F679F9}" uniqueName="55" name="Qualifier" queryTableFieldId="55" dataDxfId="9"/>
-    <tableColumn id="56" xr3:uid="{2B02BBAE-FDF8-4F3C-9CBE-FB9DD83C1E44}" uniqueName="56" name="Legal Section" queryTableFieldId="56" dataDxfId="8"/>
-    <tableColumn id="57" xr3:uid="{167F3A8D-13EE-479F-9C3A-7529100878F8}" uniqueName="57" name="Legal Unit" queryTableFieldId="57" dataDxfId="7"/>
-    <tableColumn id="58" xr3:uid="{F63D8FD0-0EFB-4068-B79E-BF17652FE778}" uniqueName="58" name="Legal Subdivision Name" queryTableFieldId="58" dataDxfId="6"/>
+    <tableColumn id="55" xr3:uid="{6024DE49-C8B1-410D-9AA7-2CE086F679F9}" uniqueName="55" name="Qualifier" queryTableFieldId="55" dataDxfId="10"/>
+    <tableColumn id="56" xr3:uid="{2B02BBAE-FDF8-4F3C-9CBE-FB9DD83C1E44}" uniqueName="56" name="Legal Section" queryTableFieldId="56" dataDxfId="9"/>
+    <tableColumn id="57" xr3:uid="{167F3A8D-13EE-479F-9C3A-7529100878F8}" uniqueName="57" name="Legal Unit" queryTableFieldId="57" dataDxfId="8"/>
+    <tableColumn id="58" xr3:uid="{F63D8FD0-0EFB-4068-B79E-BF17652FE778}" uniqueName="58" name="Legal Subdivision Name" queryTableFieldId="58" dataDxfId="7"/>
     <tableColumn id="59" xr3:uid="{190D7FFD-E629-4CC9-8E89-78EFC115F2E9}" uniqueName="59" name="Legal Tract Number" queryTableFieldId="59"/>
-    <tableColumn id="60" xr3:uid="{7F0C30BD-87B9-4141-BDB7-4CA9D05F9A18}" uniqueName="60" name="Legal Section Township Range Meridian" queryTableFieldId="60" dataDxfId="5"/>
-    <tableColumn id="61" xr3:uid="{F7772164-8514-45B9-B1CD-B88983BBB4E5}" uniqueName="61" name="Legal Brief Desc" queryTableFieldId="61" dataDxfId="4"/>
+    <tableColumn id="60" xr3:uid="{7F0C30BD-87B9-4141-BDB7-4CA9D05F9A18}" uniqueName="60" name="Legal Section Township Range Meridian" queryTableFieldId="60" dataDxfId="6"/>
+    <tableColumn id="61" xr3:uid="{F7772164-8514-45B9-B1CD-B88983BBB4E5}" uniqueName="61" name="Legal Brief Desc" queryTableFieldId="61" dataDxfId="5"/>
     <tableColumn id="62" xr3:uid="{F7FFE20C-C08A-42FD-9707-A76FC0D5C79B}" uniqueName="62" name="Subject Found Count" queryTableFieldId="62"/>
-    <tableColumn id="63" xr3:uid="{6BBF4F6F-2579-485E-832A-D1D6368CA7C2}" uniqueName="63" name="Env Risk" queryTableFieldId="63" dataDxfId="3"/>
-    <tableColumn id="64" xr3:uid="{B1316524-F041-4BF8-A26B-596E00D6E55A}" uniqueName="64" name="Tag (Keep, Maybe, Remove, Viewed)" queryTableFieldId="64" dataDxfId="2"/>
-    <tableColumn id="65" xr3:uid="{CBFA78A5-0DFB-4CF6-8364-8AD86995F8B2}" uniqueName="65" name="Grade (A, B, C, D, F)" queryTableFieldId="65" dataDxfId="1"/>
+    <tableColumn id="63" xr3:uid="{6BBF4F6F-2579-485E-832A-D1D6368CA7C2}" uniqueName="63" name="Env Risk" queryTableFieldId="63" dataDxfId="4"/>
+    <tableColumn id="64" xr3:uid="{B1316524-F041-4BF8-A26B-596E00D6E55A}" uniqueName="64" name="Tag (Keep, Maybe, Remove, Viewed)" queryTableFieldId="64" dataDxfId="3"/>
+    <tableColumn id="65" xr3:uid="{CBFA78A5-0DFB-4CF6-8364-8AD86995F8B2}" uniqueName="65" name="Grade (A, B, C, D, F)" queryTableFieldId="65" dataDxfId="2"/>
     <tableColumn id="66" xr3:uid="{ED5DCA7E-A279-4DD8-8BB2-83E6D1B764DC}" uniqueName="66" name="Group (1, 2, 3, 4, 5)" queryTableFieldId="66"/>
-    <tableColumn id="67" xr3:uid="{ACCC7D07-6807-4B5B-BC57-ADA53B4E0064}" uniqueName="67" name="Notes" queryTableFieldId="67" dataDxfId="0"/>
+    <tableColumn id="67" xr3:uid="{ACCC7D07-6807-4B5B-BC57-ADA53B4E0064}" uniqueName="67" name="Notes" queryTableFieldId="67" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{401D4140-4E54-4DF7-9E50-E1EFE20B8357}" name="Table2" displayName="Table2" ref="A36:B104" totalsRowShown="0">
+  <autoFilter ref="A36:B104" xr:uid="{401D4140-4E54-4DF7-9E50-E1EFE20B8357}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{10D982A9-8958-42B8-A202-14B9C435E2D2}" name="1"/>
+    <tableColumn id="2" xr3:uid="{377B412C-21E1-48A1-B9A4-97B24320401B}" name="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1719,7 +1770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1728,22 +1779,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E184E76F-9662-4A25-A2BA-032D3BA7AB5E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1827,7 +1878,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2034,7 +2085,7 @@
       <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>4000</v>
       </c>
       <c r="I2">
@@ -2208,7 +2259,7 @@
       <c r="G3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>3500</v>
       </c>
       <c r="I3">
@@ -2382,7 +2433,7 @@
       <c r="G4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>3000</v>
       </c>
       <c r="I4">
@@ -2554,7 +2605,7 @@
       <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>5000</v>
       </c>
       <c r="I5">
@@ -2714,7 +2765,7 @@
       <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>3500</v>
       </c>
       <c r="I6">
@@ -2882,7 +2933,7 @@
       <c r="G7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>3500</v>
       </c>
       <c r="I7">
@@ -3056,7 +3107,7 @@
       <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
       <c r="I8">
@@ -3225,7 +3276,7 @@
       <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>4500</v>
       </c>
       <c r="I9">
@@ -3391,7 +3442,7 @@
       <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>4000</v>
       </c>
       <c r="I10">
@@ -3554,7 +3605,7 @@
       <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>4000</v>
       </c>
       <c r="I11">
@@ -3726,7 +3777,7 @@
       <c r="G12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>3500</v>
       </c>
       <c r="I12">
@@ -3895,7 +3946,7 @@
       <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>3900</v>
       </c>
       <c r="I13">
@@ -4069,7 +4120,7 @@
       <c r="G14" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
       <c r="I14">
@@ -4243,7 +4294,7 @@
       <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>3500</v>
       </c>
       <c r="I15">
@@ -4415,7 +4466,7 @@
       <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>3700</v>
       </c>
       <c r="I16">
@@ -4589,7 +4640,7 @@
       <c r="G17" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
       <c r="I17">
@@ -4760,7 +4811,7 @@
       <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>3200</v>
       </c>
       <c r="I18">
@@ -4934,7 +4985,7 @@
       <c r="G19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>4000</v>
       </c>
       <c r="I19">
@@ -5103,7 +5154,7 @@
       <c r="G20" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
       <c r="I20">
@@ -5274,7 +5325,7 @@
       <c r="G21" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>3200</v>
       </c>
       <c r="I21">
@@ -5448,7 +5499,7 @@
       <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
       <c r="I22">
@@ -5613,7 +5664,7 @@
       <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>3500</v>
       </c>
       <c r="I23">
@@ -5790,7 +5841,7 @@
       <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
       <c r="I24">
@@ -5964,7 +6015,7 @@
       <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>4000</v>
       </c>
       <c r="I25">
@@ -6138,7 +6189,7 @@
       <c r="G26" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
       <c r="I26">
@@ -6309,7 +6360,7 @@
       <c r="G27" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
       <c r="I27">
@@ -6481,7 +6532,7 @@
       <c r="G28" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>3000</v>
       </c>
       <c r="I28">
@@ -6653,7 +6704,7 @@
       <c r="G29" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>4000</v>
       </c>
       <c r="I29">
@@ -6819,7 +6870,7 @@
       <c r="G30" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>8000</v>
       </c>
       <c r="I30">
@@ -6970,10 +7021,565 @@
         <v>89</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="e">
+        <f>Table1_2[[#This Row],[Original Lien (Effective Date)]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>1108.5999999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44959</v>
+      </c>
+      <c r="D42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>26228640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>369900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>455542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>-74.193876277438406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>39.902533992985099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="1">
+        <v>41486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80">
+        <v>346000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85">
+        <v>339733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="1">
+        <v>52444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96">
+        <v>731103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
